--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value895.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value895.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.508813840521777</v>
+        <v>2.627098560333252</v>
       </c>
       <c r="B1">
-        <v>2.229465589782714</v>
+        <v>2.881130218505859</v>
       </c>
       <c r="C1">
-        <v>2.562075966291797</v>
+        <v>1.734490752220154</v>
       </c>
       <c r="D1">
-        <v>2.952838943261163</v>
+        <v>1.408208847045898</v>
       </c>
       <c r="E1">
-        <v>2.506397536422671</v>
+        <v>1.313300967216492</v>
       </c>
     </row>
   </sheetData>
